--- a/biology/Zoologie/Ixothraupis/Ixothraupis.xlsx
+++ b/biology/Zoologie/Ixothraupis/Ixothraupis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixothraupis est un genre d'oiseaux Passeriformes de la famille des Thraupidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (1 janvier 2024)[1], il comporte cinq espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (1 janvier 2024), il comporte cinq espèces :
 Ixothraupis varia (P.L.S.Müller, 1776) – Calliste tacheté
 Ixothraupis rufigula (Bonaparte, 1851) – Calliste à gorge rousse
 Ixothraupis punctata (Linnaeus, 1766) – Calliste syacou
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ixothraupis Bonaparte, 1851[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Ixothraupis Bonaparte, 1851.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Ixothraupis, dérive du grec ancien ἰξός, ixós, « gui », et θραυπῐ́ς, thraupís, « petit oiseau ».
 </t>
